--- a/Unity/Assets/Config/ExcelCustom/Character.xlsx
+++ b/Unity/Assets/Config/ExcelCustom/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24720" windowHeight="11310"/>
+    <workbookView windowWidth="20970" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -45,13 +45,13 @@
     <t>string</t>
   </si>
   <si>
-    <t>Directory&lt;string,int&gt;</t>
+    <t>Dictionary&lt;string,int&gt;</t>
   </si>
   <si>
     <t>int[]</t>
   </si>
   <si>
-    <t>Directory&lt;int,string&gt;</t>
+    <t>Dictionary&lt;int,string&gt;</t>
   </si>
   <si>
     <t>名字</t>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>

--- a/Unity/Assets/Config/ExcelCustom/Character.xlsx
+++ b/Unity/Assets/Config/ExcelCustom/Character.xlsx
@@ -45,13 +45,13 @@
     <t>string</t>
   </si>
   <si>
-    <t>Dictionary&lt;string,int&gt;</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>Dictionary&lt;int,string&gt;</t>
+    <t>&lt;string,int&gt;</t>
+  </si>
+  <si>
+    <t>&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>&lt;int,string&gt;</t>
   </si>
   <si>
     <t>名字</t>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>

--- a/Unity/Assets/Config/ExcelCustom/Character.xlsx
+++ b/Unity/Assets/Config/ExcelCustom/Character.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20970" windowHeight="11055"/>
+    <workbookView windowWidth="24480" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="#Alias" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -54,6 +54,9 @@
     <t>&lt;int,string&gt;</t>
   </si>
   <si>
+    <t>alias:true</t>
+  </si>
+  <si>
     <t>名字</t>
   </si>
   <si>
@@ -72,31 +75,58 @@
     <t>测试(字典)</t>
   </si>
   <si>
+    <t>吉姆</t>
+  </si>
+  <si>
+    <t>x=1,y=0,z=1</t>
+  </si>
+  <si>
+    <t>1,一百万</t>
+  </si>
+  <si>
+    <t>生命值:100,Att:一百万</t>
+  </si>
+  <si>
+    <t>1:1,2:2</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>Hp:100,蓝:11</t>
+  </si>
+  <si>
+    <t>Tonny</t>
+  </si>
+  <si>
+    <t>Hp:100,Att:12</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>HHHHp</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>MMMMp</t>
+  </si>
+  <si>
     <t>Jim</t>
   </si>
   <si>
-    <t>x=1,y=0,z=1</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>Hp:100,Att:10</t>
-  </si>
-  <si>
-    <t>1:1,2:2</t>
-  </si>
-  <si>
-    <t>Andy</t>
-  </si>
-  <si>
-    <t>Hp:100,Att:11</t>
-  </si>
-  <si>
-    <t>Tonny</t>
-  </si>
-  <si>
-    <t>Hp:100,Att:12</t>
+    <t>一百万</t>
   </si>
 </sst>
 </file>
@@ -1065,8 +1095,8 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1126,11 +1156,17 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
@@ -1138,22 +1174,22 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1161,22 +1197,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1184,22 +1220,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1207,22 +1243,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1235,14 +1271,55 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
